--- a/biology/Botanique/Pentameris_pictigluma_var._mannii/Pentameris_pictigluma_var._mannii.xlsx
+++ b/biology/Botanique/Pentameris_pictigluma_var._mannii/Pentameris_pictigluma_var._mannii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pentameris pictigluma var. mannii (synonyme : Pentaschistis mannii) est une variété de plantes à fleurs monocotylédones de la famille des Poaceae, sous-famille des Pooideae, endémique du Cameroun.
 </t>
@@ -511,13 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes de l'espèce Pentameris pictigluma sont des plantes herbacées vivaces, aux tiges (chaumes) dressées de 8 à 45 cm de long.  Le limbe foliaire, plat ou enroulé, est raide, filiforme ou linéaire, de 2 à 10 cm de long sur 1 à 3 mm de large.
 L'inflorescence est une panicule contractée, spiciforme, de 2 à 8 cm de long. Elle regroupe des épillets solitaires, pédicellés, de 4 à 8 mm de long, comprimés latéralement, et comptant deux fleurons fertiles. Ces épillets se désarticulent à maturité sous chaque fleuron fertile.
 Les glumes, persistantes, membraneuses, elliptiques, sont similaires et dépassent la longueur de l'épillet. 
 La lemme des fleurons fertiles, de 2 à 3 mm de long, membraneuse, pubescente, présente de 5 à 9 nervures et est lobée à son apex. Elle compte trois arêtes, la principale, longue de 4 à 7 mm, est géniculée, avec  une colonne torsadée.
-Le fruit est un caryopse au péricarpe adhérent[2].
+Le fruit est un caryopse au péricarpe adhérent.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du mont Cameroun où elle a été collectée à 20 reprises avant 1988. Elle est absente des montagnes voisines qui présentent un habitat similaire, tels le Bioko ou le mont Oku[3].
-Elle se rencontre dans les pelouses d'altitude, entre 2700 et 4000 m. Son habitat a été décrit comme des « sommets couverts de tapis de mousses sur des sols de cendres volcaniques nues »[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du mont Cameroun où elle a été collectée à 20 reprises avant 1988. Elle est absente des montagnes voisines qui présentent un habitat similaire, tels le Bioko ou le mont Oku.
+Elle se rencontre dans les pelouses d'altitude, entre 2700 et 4000 m. Son habitat a été décrit comme des « sommets couverts de tapis de mousses sur des sols de cendres volcaniques nues ».
 </t>
         </is>
       </c>
@@ -578,20 +594,91 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon a d'abord été décrit et publié en 1936 sous le nom de Pentaschistis mannii par Otto Stapf dans le Bulletin of Miscellaneous Information, Royal Gardens, Kew 1936 (9): 501 [18 déc 1936][4]. 
-Il a par la suite été reclassé comme sous-espèce de Pentameris pictigluma et publié en 2010 par Hans peter Linder et al. dans un article intitulé A generic classification of the Danthonioideae (Poaceae) publié dans Annals of the Missouri Botanical Garden 97(3): 306-364[3].
-Synonymes
-Selon 
-Catalogue of Life                                   (8 octobre 2017)[1]:
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon a d'abord été décrit et publié en 1936 sous le nom de Pentaschistis mannii par Otto Stapf dans le Bulletin of Miscellaneous Information, Royal Gardens, Kew 1936 (9): 501 [18 déc 1936]. 
+Il a par la suite été reclassé comme sous-espèce de Pentameris pictigluma et publié en 2010 par Hans peter Linder et al. dans un article intitulé A generic classification of the Danthonioideae (Poaceae) publié dans Annals of the Missouri Botanical Garden 97(3): 306-364.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pentameris_pictigluma_var._mannii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pentameris_pictigluma_var._mannii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon 
+Catalogue of Life                                   (8 octobre 2017):
 Pentaschistis mannii Stapf ex C.E.Hubb.
 Pentaschistis pictigluma var. mannii (Stapf ex C.E.Hubb.) S.M.Phillips
-Pentameris mannii Stapf ex C.E.Hubb[3].
-Étymologie
-Le nom générique, « Pentameris », dérive de deux racines grecques, penta (cinq)  et meros (partie), en référence aux lemmes portant cinq arêtes[5].
+Pentameris mannii Stapf ex C.E.Hubb.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Pentameris_pictigluma_var._mannii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pentameris_pictigluma_var._mannii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Pentameris », dérive de deux racines grecques, penta (cinq)  et meros (partie), en référence aux lemmes portant cinq arêtes.
 L'épithète spécifique, « pictigluma », composée des termes latins picta (peinte), et gluma (glume) fait référence à la pigmentation des glumes.
-L'épithète subspécifique, « mannii »,  est un hommage au botaniste allemand, Gustav Mann (1836–1916), qui travailla pour le compte des Jardins botaniques royaux de Kew[6]..
+L'épithète subspécifique, « mannii »,  est un hommage au botaniste allemand, Gustav Mann (1836–1916), qui travailla pour le compte des Jardins botaniques royaux de Kew..
 </t>
         </is>
       </c>
